--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2489F2-0EAE-497E-B422-1E1C8270ACEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C9B44-E2DD-4F9F-8C0D-7D2118E29BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9060" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Dato</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>DD08 finpusning og feedback fra reviewer</t>
+  </si>
+  <si>
+    <t>UT01 BrugerTest</t>
+  </si>
+  <si>
+    <t>Review af XD Desktop</t>
+  </si>
+  <si>
+    <t>OC0103</t>
+  </si>
+  <si>
+    <t>Review af XD Phone</t>
   </si>
 </sst>
 </file>
@@ -337,14 +349,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -740,16 +752,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -784,7 +796,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>43885</v>
       </c>
       <c r="D3" s="10">
@@ -812,7 +824,7 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>43885</v>
       </c>
       <c r="D4" s="3">
@@ -838,7 +850,7 @@
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>43885</v>
       </c>
       <c r="D5" s="3">
@@ -858,73 +870,127 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="18">
+        <v>43886</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.46875</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H6" s="8">
         <f>SUM(G$3:G6)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.17361111111111122</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="18">
+        <v>43886</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="H7" s="8">
         <f>SUM(G$3:G7)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.18402777777777796</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="18">
+        <v>43886</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H8" s="8">
         <f>SUM(G$3:G8)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.19097222222222238</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="18">
+        <v>43886</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="H9" s="8">
         <f>SUM(G$3:G9)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.19791666666666691</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18">
+        <v>43886</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="H10" s="8">
         <f>SUM(G$3:G10)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -938,7 +1004,7 @@
       </c>
       <c r="H11" s="8">
         <f>SUM(G$3:G11)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -952,7 +1018,7 @@
       </c>
       <c r="H12" s="8">
         <f>SUM(G$3:G12)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -966,7 +1032,7 @@
       </c>
       <c r="H13" s="8">
         <f>SUM(G$3:G13)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -978,7 +1044,7 @@
       </c>
       <c r="H14" s="8">
         <f>SUM(G$3:G14)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -990,7 +1056,7 @@
       </c>
       <c r="H15" s="8">
         <f>SUM(G$3:G15)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1002,7 +1068,7 @@
       </c>
       <c r="H16" s="8">
         <f>SUM(G$3:G16)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1014,7 +1080,7 @@
       </c>
       <c r="H17" s="8">
         <f>SUM(G$3:G17)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1026,7 +1092,7 @@
       </c>
       <c r="H18" s="8">
         <f>SUM(G$3:G18)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1038,7 +1104,7 @@
       </c>
       <c r="H19" s="8">
         <f>SUM(G$3:G19)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1050,7 +1116,7 @@
       </c>
       <c r="H20" s="8">
         <f>SUM(G$3:G20)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1062,7 +1128,7 @@
       </c>
       <c r="H21" s="8">
         <f>SUM(G$3:G21)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1074,7 +1140,7 @@
       </c>
       <c r="H22" s="8">
         <f>SUM(G$3:G22)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1086,7 +1152,7 @@
       </c>
       <c r="H23" s="8">
         <f>SUM(G$3:G23)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1098,7 +1164,7 @@
       </c>
       <c r="H24" s="8">
         <f>SUM(G$3:G24)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1109,7 +1175,7 @@
       </c>
       <c r="H25" s="8">
         <f>SUM(G$3:G25)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1120,7 +1186,7 @@
       </c>
       <c r="H26" s="8">
         <f>SUM(G$3:G26)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1131,7 +1197,7 @@
       </c>
       <c r="H27" s="8">
         <f>SUM(G$3:G27)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1142,7 +1208,7 @@
       </c>
       <c r="H28" s="8">
         <f>SUM(G$3:G28)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1153,7 +1219,7 @@
       </c>
       <c r="H29" s="8">
         <f>SUM(G$3:G29)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1164,7 +1230,7 @@
       </c>
       <c r="H30" s="8">
         <f>SUM(G$3:G30)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1175,7 +1241,7 @@
       </c>
       <c r="H31" s="8">
         <f>SUM(G$3:G31)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1186,7 +1252,7 @@
       </c>
       <c r="H32" s="8">
         <f>SUM(G$3:G32)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.28125000000000017</v>
       </c>
     </row>
     <row r="33" spans="3:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1261,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9466DE97-788B-454A-A978-16D65412D85C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,13 +1337,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C9B44-E2DD-4F9F-8C0D-7D2118E29BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7509878D-A073-4B1B-B81C-22D6052C729B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9060" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="5208" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="Roller">'Ark2'!$B$3:$B$31</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Dato</t>
   </si>
@@ -181,6 +184,18 @@
   </si>
   <si>
     <t>Review af XD Phone</t>
+  </si>
+  <si>
+    <t>OC0802</t>
+  </si>
+  <si>
+    <t>KKO use-case møde</t>
+  </si>
+  <si>
+    <t>IndtjeningsBidrag AD møde</t>
+  </si>
+  <si>
+    <t>DOM06 KontantKapacitetsOmkostning</t>
   </si>
 </sst>
 </file>
@@ -737,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -994,57 +1009,107 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18">
+        <v>43887</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5138888888888951E-2</v>
       </c>
       <c r="H11" s="8">
         <f>SUM(G$3:G11)</f>
-        <v>0.28125000000000017</v>
+        <v>0.32638888888888912</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="18">
+        <v>43887</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="H12" s="8">
         <f>SUM(G$3:G12)</f>
-        <v>0.28125000000000017</v>
+        <v>0.35416666666666685</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18">
+        <v>43887</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.54513888888888895</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222321E-2</v>
       </c>
       <c r="H13" s="8">
         <f>SUM(G$3:G13)</f>
-        <v>0.28125000000000017</v>
+        <v>0.38888888888888917</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="18">
+        <v>43887</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.59375</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H14" s="8">
         <f>SUM(G$3:G14)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1056,7 +1121,7 @@
       </c>
       <c r="H15" s="8">
         <f>SUM(G$3:G15)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1068,7 +1133,7 @@
       </c>
       <c r="H16" s="8">
         <f>SUM(G$3:G16)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1080,7 +1145,7 @@
       </c>
       <c r="H17" s="8">
         <f>SUM(G$3:G17)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1092,7 +1157,7 @@
       </c>
       <c r="H18" s="8">
         <f>SUM(G$3:G18)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1104,7 +1169,7 @@
       </c>
       <c r="H19" s="8">
         <f>SUM(G$3:G19)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1116,7 +1181,7 @@
       </c>
       <c r="H20" s="8">
         <f>SUM(G$3:G20)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="H21" s="8">
         <f>SUM(G$3:G21)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1140,7 +1205,7 @@
       </c>
       <c r="H22" s="8">
         <f>SUM(G$3:G22)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1152,7 +1217,7 @@
       </c>
       <c r="H23" s="8">
         <f>SUM(G$3:G23)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1164,7 +1229,7 @@
       </c>
       <c r="H24" s="8">
         <f>SUM(G$3:G24)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1175,7 +1240,7 @@
       </c>
       <c r="H25" s="8">
         <f>SUM(G$3:G25)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1186,7 +1251,7 @@
       </c>
       <c r="H26" s="8">
         <f>SUM(G$3:G26)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1197,7 +1262,7 @@
       </c>
       <c r="H27" s="8">
         <f>SUM(G$3:G27)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1208,7 +1273,7 @@
       </c>
       <c r="H28" s="8">
         <f>SUM(G$3:G28)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1219,7 +1284,7 @@
       </c>
       <c r="H29" s="8">
         <f>SUM(G$3:G29)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1230,7 +1295,7 @@
       </c>
       <c r="H30" s="8">
         <f>SUM(G$3:G30)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1241,7 +1306,7 @@
       </c>
       <c r="H31" s="8">
         <f>SUM(G$3:G31)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1252,7 +1317,7 @@
       </c>
       <c r="H32" s="8">
         <f>SUM(G$3:G32)</f>
-        <v>0.28125000000000017</v>
+        <v>0.44097222222222254</v>
       </c>
     </row>
     <row r="33" spans="3:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1327,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9466DE97-788B-454A-A978-16D65412D85C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7509878D-A073-4B1B-B81C-22D6052C729B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8131AC39-D133-4FA3-9FCD-16BD9364581A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5208" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Dato</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>DOM06 KontantKapacitetsOmkostning</t>
+  </si>
+  <si>
+    <t>OC0802 rettelser</t>
+  </si>
+  <si>
+    <t>ATD07</t>
+  </si>
+  <si>
+    <t>ATD06</t>
+  </si>
+  <si>
+    <t>ATD07 rettelser</t>
+  </si>
+  <si>
+    <t>ATD06 rettelser</t>
   </si>
 </sst>
 </file>
@@ -753,7 +768,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -846,16 +861,16 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4513888888888889</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="8">
         <f t="shared" ref="G4:G32" si="0">E4-D4</f>
-        <v>4.861111111111116E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H4" s="8">
         <f>SUM(G$3:G4)</f>
-        <v>7.986111111111116E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -872,16 +887,16 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="E5" s="3">
-        <v>0.59027777777777779</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>1.0416666666666741E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H5" s="8">
         <f>SUM(G$3:G5)</f>
-        <v>9.0277777777777901E-2</v>
+        <v>0.11458333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -904,7 +919,7 @@
       </c>
       <c r="H6" s="8">
         <f>SUM(G$3:G6)</f>
-        <v>0.17361111111111122</v>
+        <v>0.19791666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -927,7 +942,7 @@
       </c>
       <c r="H7" s="8">
         <f>SUM(G$3:G7)</f>
-        <v>0.18402777777777796</v>
+        <v>0.20833333333333343</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -953,7 +968,7 @@
       </c>
       <c r="H8" s="8">
         <f>SUM(G$3:G8)</f>
-        <v>0.19097222222222238</v>
+        <v>0.21527777777777785</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -979,7 +994,7 @@
       </c>
       <c r="H9" s="8">
         <f>SUM(G$3:G9)</f>
-        <v>0.19791666666666691</v>
+        <v>0.22222222222222238</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1005,7 +1020,7 @@
       </c>
       <c r="H10" s="8">
         <f>SUM(G$3:G10)</f>
-        <v>0.28125000000000017</v>
+        <v>0.30555555555555564</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1022,16 +1037,16 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E11" s="3">
-        <v>0.44097222222222227</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>4.5138888888888951E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H11" s="8">
         <f>SUM(G$3:G11)</f>
-        <v>0.32638888888888912</v>
+        <v>0.32638888888888901</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1057,7 +1072,7 @@
       </c>
       <c r="H12" s="8">
         <f>SUM(G$3:G12)</f>
-        <v>0.35416666666666685</v>
+        <v>0.35416666666666674</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1083,7 +1098,7 @@
       </c>
       <c r="H13" s="8">
         <f>SUM(G$3:G13)</f>
-        <v>0.38888888888888917</v>
+        <v>0.38888888888888906</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1109,70 +1124,128 @@
       </c>
       <c r="H14" s="8">
         <f>SUM(G$3:G14)</f>
-        <v>0.44097222222222254</v>
+        <v>0.44097222222222243</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="18">
+        <v>43889</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H15" s="8">
         <f>SUM(G$3:G15)</f>
-        <v>0.44097222222222254</v>
+        <v>0.4618055555555558</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="18">
+        <v>43889</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H16" s="8">
         <f>SUM(G$3:G16)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="2"/>
+        <v>0.50000000000000022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="18">
+        <v>43889</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H17" s="8">
         <f>SUM(G$3:G17)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="2"/>
+        <v>0.53125000000000022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="18">
+        <v>43889</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.52430555555555558</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H18" s="8">
         <f>SUM(G$3:G18)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="2"/>
+        <v>0.56250000000000022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="18">
+        <v>43889</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.56944444444444442</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3055555555555514E-2</v>
       </c>
       <c r="H19" s="8">
         <f>SUM(G$3:G19)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="8">
@@ -1181,10 +1254,10 @@
       </c>
       <c r="H20" s="8">
         <f>SUM(G$3:G20)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="8">
@@ -1193,10 +1266,10 @@
       </c>
       <c r="H21" s="8">
         <f>SUM(G$3:G21)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="8">
@@ -1205,10 +1278,10 @@
       </c>
       <c r="H22" s="8">
         <f>SUM(G$3:G22)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="8">
@@ -1217,10 +1290,10 @@
       </c>
       <c r="H23" s="8">
         <f>SUM(G$3:G23)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="8">
@@ -1229,10 +1302,10 @@
       </c>
       <c r="H24" s="8">
         <f>SUM(G$3:G24)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="2"/>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
@@ -1240,10 +1313,10 @@
       </c>
       <c r="H25" s="8">
         <f>SUM(G$3:G25)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C26" s="2"/>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
@@ -1251,10 +1324,10 @@
       </c>
       <c r="H26" s="8">
         <f>SUM(G$3:G26)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C27" s="2"/>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
@@ -1262,10 +1335,10 @@
       </c>
       <c r="H27" s="8">
         <f>SUM(G$3:G27)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C28" s="2"/>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
@@ -1273,10 +1346,10 @@
       </c>
       <c r="H28" s="8">
         <f>SUM(G$3:G28)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C29" s="2"/>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
@@ -1284,10 +1357,10 @@
       </c>
       <c r="H29" s="8">
         <f>SUM(G$3:G29)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C30" s="2"/>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
@@ -1295,10 +1368,10 @@
       </c>
       <c r="H30" s="8">
         <f>SUM(G$3:G30)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C31" s="2"/>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
@@ -1306,10 +1379,10 @@
       </c>
       <c r="H31" s="8">
         <f>SUM(G$3:G31)</f>
-        <v>0.44097222222222254</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0.60555555555555574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C32" s="2"/>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
@@ -1317,7 +1390,7 @@
       </c>
       <c r="H32" s="8">
         <f>SUM(G$3:G32)</f>
-        <v>0.44097222222222254</v>
+        <v>0.60555555555555574</v>
       </c>
     </row>
     <row r="33" spans="3:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8131AC39-D133-4FA3-9FCD-16BD9364581A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A11BE-5DAC-4E48-915B-906FCC9C4798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Dato</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>ATD06 rettelser</t>
+  </si>
+  <si>
+    <t>review af DCD SD0104 + før forbedrelse pga. troede jeg skulle lave den</t>
+  </si>
+  <si>
+    <t>spilder tid pga. folk ikke skrev sig på opgaven jeg skrev mig på</t>
+  </si>
+  <si>
+    <t>UT05, UT06</t>
+  </si>
+  <si>
+    <t>UTD05 UTD05</t>
   </si>
 </sst>
 </file>
@@ -768,7 +780,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -1246,51 +1258,104 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="18">
+        <v>43892</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.40972222222222227</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.861111111111116E-2</v>
       </c>
       <c r="H20" s="8">
         <f>SUM(G$3:G20)</f>
-        <v>0.60555555555555574</v>
+        <v>0.6541666666666669</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18">
+        <v>43892</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H21" s="8">
         <f>SUM(G$3:G21)</f>
-        <v>0.60555555555555574</v>
+        <v>0.70625000000000027</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="18">
+        <v>43893</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.46875</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="H22" s="8">
         <f>SUM(G$3:G22)</f>
-        <v>0.60555555555555574</v>
+        <v>0.80000000000000027</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="18">
+        <v>43893</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.59375</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H23" s="8">
         <f>SUM(G$3:G23)</f>
-        <v>0.60555555555555574</v>
+        <v>0.92500000000000027</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1302,7 +1367,7 @@
       </c>
       <c r="H24" s="8">
         <f>SUM(G$3:G24)</f>
-        <v>0.60555555555555574</v>
+        <v>0.92500000000000027</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1313,7 +1378,7 @@
       </c>
       <c r="H25" s="8">
         <f>SUM(G$3:G25)</f>
-        <v>0.60555555555555574</v>
+        <v>0.92500000000000027</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1324,7 +1389,7 @@
       </c>
       <c r="H26" s="8">
         <f>SUM(G$3:G26)</f>
-        <v>0.60555555555555574</v>
+        <v>0.92500000000000027</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1335,7 +1400,7 @@
       </c>
       <c r="H27" s="8">
         <f>SUM(G$3:G27)</f>
-        <v>0.60555555555555574</v>
+        <v>0.92500000000000027</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1346,7 +1411,7 @@
       </c>
       <c r="H28" s="8">
         <f>SUM(G$3:G28)</f>
-        <v>0.60555555555555574</v>
+        <v>0.92500000000000027</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1357,7 +1422,7 @@
       </c>
       <c r="H29" s="8">
         <f>SUM(G$3:G29)</f>
-        <v>0.60555555555555574</v>
+        <v>0.92500000000000027</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1368,7 +1433,7 @@
       </c>
       <c r="H30" s="8">
         <f>SUM(G$3:G30)</f>
-        <v>0.60555555555555574</v>
+        <v>0.92500000000000027</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1379,7 +1444,7 @@
       </c>
       <c r="H31" s="8">
         <f>SUM(G$3:G31)</f>
-        <v>0.60555555555555574</v>
+        <v>0.92500000000000027</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1390,7 +1455,7 @@
       </c>
       <c r="H32" s="8">
         <f>SUM(G$3:G32)</f>
-        <v>0.60555555555555574</v>
+        <v>0.92500000000000027</v>
       </c>
     </row>
     <row r="33" spans="3:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A11BE-5DAC-4E48-915B-906FCC9C4798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC135AEB-5080-4172-93D6-A0B12235D344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>Dato</t>
   </si>
@@ -223,6 +223,21 @@
   </si>
   <si>
     <t>UTD05 UTD05</t>
+  </si>
+  <si>
+    <t>UI (FX) for Vareforbrug</t>
+  </si>
+  <si>
+    <t>UC0804</t>
+  </si>
+  <si>
+    <t>sammenlæg dd og dd02</t>
+  </si>
+  <si>
+    <t>STD0104</t>
+  </si>
+  <si>
+    <t>UnitTest- STD0104</t>
   </si>
 </sst>
 </file>
@@ -779,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -1359,70 +1374,151 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="18">
+        <v>43895</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H24" s="8">
         <f>SUM(G$3:G24)</f>
-        <v>0.92500000000000027</v>
+        <v>1.0083333333333335</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="2"/>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="18">
+        <v>43895</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11458333333333337</v>
       </c>
       <c r="H25" s="8">
         <f>SUM(G$3:G25)</f>
-        <v>0.92500000000000027</v>
+        <v>1.1229166666666668</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="2"/>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="18">
+        <v>43896</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H26" s="8">
         <f>SUM(G$3:G26)</f>
-        <v>0.92500000000000027</v>
+        <v>1.1437500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="2"/>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="18">
+        <v>43896</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.53125</v>
+      </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H27" s="8">
         <f>SUM(G$3:G27)</f>
-        <v>0.92500000000000027</v>
+        <v>1.2062500000000003</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="18">
+        <v>43896</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.53125</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="H28" s="8">
         <f>SUM(G$3:G28)</f>
-        <v>0.92500000000000027</v>
+        <v>1.2791666666666668</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="18">
+        <v>43899</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="H29" s="8">
         <f>SUM(G$3:G29)</f>
-        <v>0.92500000000000027</v>
+        <v>1.4458333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1433,7 +1529,7 @@
       </c>
       <c r="H30" s="8">
         <f>SUM(G$3:G30)</f>
-        <v>0.92500000000000027</v>
+        <v>1.4458333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1444,7 +1540,7 @@
       </c>
       <c r="H31" s="8">
         <f>SUM(G$3:G31)</f>
-        <v>0.92500000000000027</v>
+        <v>1.4458333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1455,7 +1551,7 @@
       </c>
       <c r="H32" s="8">
         <f>SUM(G$3:G32)</f>
-        <v>0.92500000000000027</v>
+        <v>1.4458333333333333</v>
       </c>
     </row>
     <row r="33" spans="3:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Bille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A11BE-5DAC-4E48-915B-906FCC9C4798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFD31F7-CBCC-462A-B67A-A07F0A361582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>Dato</t>
   </si>
@@ -223,6 +223,30 @@
   </si>
   <si>
     <t>UTD05 UTD05</t>
+  </si>
+  <si>
+    <t>UI (FX) for Vareforbrug</t>
+  </si>
+  <si>
+    <t>UC0804</t>
+  </si>
+  <si>
+    <t>sammenlæg dd og dd02</t>
+  </si>
+  <si>
+    <t>STD0104</t>
+  </si>
+  <si>
+    <t>UnitTest- STD0104</t>
+  </si>
+  <si>
+    <t>Review af 03</t>
+  </si>
+  <si>
+    <t>SD -0301 + 0302 + 0303</t>
+  </si>
+  <si>
+    <t>DCD - 0301 + 0302 + 0303</t>
   </si>
 </sst>
 </file>
@@ -779,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -1169,6 +1193,9 @@
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="18">
         <v>43889</v>
       </c>
@@ -1192,6 +1219,9 @@
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C17" s="18">
         <v>43889</v>
       </c>
@@ -1215,6 +1245,9 @@
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C18" s="18">
         <v>43889</v>
       </c>
@@ -1238,6 +1271,9 @@
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="18">
         <v>43889</v>
       </c>
@@ -1359,103 +1395,223 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="18">
+        <v>43895</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H24" s="8">
         <f>SUM(G$3:G24)</f>
-        <v>0.92500000000000027</v>
+        <v>1.0083333333333335</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="2"/>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="18">
+        <v>43895</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11458333333333337</v>
       </c>
       <c r="H25" s="8">
         <f>SUM(G$3:G25)</f>
-        <v>0.92500000000000027</v>
+        <v>1.1229166666666668</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="2"/>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="18">
+        <v>43896</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H26" s="8">
         <f>SUM(G$3:G26)</f>
-        <v>0.92500000000000027</v>
+        <v>1.1437500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="2"/>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="18">
+        <v>43896</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.53125</v>
+      </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H27" s="8">
         <f>SUM(G$3:G27)</f>
-        <v>0.92500000000000027</v>
+        <v>1.2062500000000003</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="18">
+        <v>43896</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.53125</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="H28" s="8">
         <f>SUM(G$3:G28)</f>
-        <v>0.92500000000000027</v>
+        <v>1.2791666666666668</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="18">
+        <v>43899</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="H29" s="8">
         <f>SUM(G$3:G29)</f>
-        <v>0.92500000000000027</v>
+        <v>1.4458333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="2"/>
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="18">
+        <v>43900</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.38194444444444442</v>
+      </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H30" s="8">
         <f>SUM(G$3:G30)</f>
-        <v>0.92500000000000027</v>
+        <v>1.4527777777777777</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="2"/>
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="18">
+        <v>43900</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.46875</v>
+      </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H31" s="8">
         <f>SUM(G$3:G31)</f>
-        <v>0.92500000000000027</v>
+        <v>1.536111111111111</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="18">
+        <v>43900</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H32" s="8">
         <f>SUM(G$3:G32)</f>
-        <v>0.92500000000000027</v>
+        <v>1.6194444444444442</v>
       </c>
     </row>
     <row r="33" spans="3:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
